--- a/com.FreeSpaceAssignment/TestData/TestData.xlsx
+++ b/com.FreeSpaceAssignment/TestData/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\git\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\Documents\GitHub\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7EDA7F-60A9-4D07-AAC9-441C9D81D973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF882228-4E2C-41FE-ABAB-AD5CBBD67954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8260" yWindow="1010" windowWidth="9450" windowHeight="9190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Apps</t>
-  </si>
-  <si>
-    <t>Playstore Rating</t>
-  </si>
-  <si>
-    <t>AppStore Rating</t>
-  </si>
-  <si>
-    <t>Zomatto</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Swiggy</t>
   </si>
@@ -42,6 +30,9 @@
   <si>
     <t>Zee5</t>
   </si>
+  <si>
+    <t>Zomato</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,12 +352,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -564,11 +549,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -924,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,35 +920,24 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/com.FreeSpaceAssignment/TestData/TestData.xlsx
+++ b/com.FreeSpaceAssignment/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\Documents\GitHub\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\git\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF882228-4E2C-41FE-ABAB-AD5CBBD67954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A352AFA-C985-474B-92DB-5AFB646273CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8260" yWindow="1010" windowWidth="9450" windowHeight="9190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,7 +911,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/com.FreeSpaceAssignment/TestData/TestData.xlsx
+++ b/com.FreeSpaceAssignment/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\git\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A352AFA-C985-474B-92DB-5AFB646273CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670075F3-0178-4BAB-A882-61B03D3CD146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8260" yWindow="1010" windowWidth="9450" windowHeight="9190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Swiggy</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>Zomato</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>Playstore Rating</t>
+  </si>
+  <si>
+    <t>App Store Rating</t>
   </si>
 </sst>
 </file>
@@ -908,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,23 +929,34 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/com.FreeSpaceAssignment/TestData/TestData.xlsx
+++ b/com.FreeSpaceAssignment/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\git\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670075F3-0178-4BAB-A882-61B03D3CD146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A9F926-F0E0-47B6-996B-1AAB0FDC66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="1010" windowWidth="9450" windowHeight="9190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="1010" windowWidth="11620" windowHeight="9190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -920,13 +920,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">

--- a/com.FreeSpaceAssignment/TestData/TestData.xlsx
+++ b/com.FreeSpaceAssignment/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\git\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A9F926-F0E0-47B6-996B-1AAB0FDC66AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABAE788-FB7D-4802-9C9C-2D50349411EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6090" yWindow="1010" windowWidth="11620" windowHeight="9190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/com.FreeSpaceAssignment/TestData/TestData.xlsx
+++ b/com.FreeSpaceAssignment/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\git\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABAE788-FB7D-4802-9C9C-2D50349411EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B96081-0584-4168-8659-EBE9E29D3B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6090" yWindow="1010" windowWidth="11620" windowHeight="9190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,7 +920,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C5"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/com.FreeSpaceAssignment/TestData/TestData.xlsx
+++ b/com.FreeSpaceAssignment/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\git\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Swiggy</t>
   </si>
@@ -42,11 +42,21 @@
   <si>
     <t>App Store Rating</t>
   </si>
+  <si>
+    <t>Rating: 4</t>
+  </si>
+  <si>
+    <t>Rating: 4.5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -925,8 +935,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -944,20 +954,44 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/com.FreeSpaceAssignment/TestData/TestData.xlsx
+++ b/com.FreeSpaceAssignment/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AVT3SL744\git\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\FreeSpaceAssignment\com.FreeSpaceAssignment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B96081-0584-4168-8659-EBE9E29D3B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452AACF8-DCF8-4EB2-866A-94D149FEBD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="1010" windowWidth="11620" windowHeight="9190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
-    <t>Swiggy</t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>Zee5</t>
-  </si>
-  <si>
-    <t>Zomato</t>
-  </si>
-  <si>
     <t>Apps</t>
   </si>
   <si>
@@ -41,6 +29,18 @@
   </si>
   <si>
     <t>App Store Rating</t>
+  </si>
+  <si>
+    <t>zomato</t>
+  </si>
+  <si>
+    <t>swiggy</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>zee5</t>
   </si>
   <si>
     <t>Rating: 4</t>
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,14 +373,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -495,34 +489,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -568,10 +534,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -930,28 +894,29 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="17.21875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.5546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -961,9 +926,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -972,9 +937,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -983,9 +948,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
